--- a/biology/Botanique/Aloe_humilis/Aloe_humilis.xlsx
+++ b/biology/Botanique/Aloe_humilis/Aloe_humilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aloe humilis est une espèce de plantes à fleurs de la famille des Xanthorrhoeaceae, selon APG III, des Asphodelaceae, selon APG IV. C'est une plante grasse ornementale.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"humilis" d'origine latine signifiant "de petite taille"[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"humilis" d'origine latine signifiant "de petite taille".
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles charnues sont de couleur vert-glauque et de longueur d'environ 10 centimètres et 1,2 à 1,8 de large. La hampe florale fait de 25 à 30 cm de hauteur avec des fleurs éparses de couleur rougeâtre.
 </t>
@@ -573,7 +589,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chromosomes sont au nombre de  
         2
@@ -610,7 +628,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Afrique du Sud (province du Cap-Occidental).
 </t>
